--- a/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
+++ b/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F12"/>
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -644,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -673,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>55</v>
@@ -682,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -749,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>65</v>
@@ -758,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -787,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>70</v>
@@ -796,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>75</v>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>80</v>
@@ -872,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -901,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>85</v>
@@ -910,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>4</v>

--- a/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
+++ b/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
@@ -15,8 +15,69 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+开启需要的星数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:郑玉振</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为：
+star1gold;star2gold;star3gold;star4gold|star1energy;star2energy;star3energy;star4energy|itemId;star1Count;star2Count;star3Count;star4Count|itemId;star1Count;star2Count;star3Count;star4Count
+当本关卡过关之后，如果之前已经过关，那么本次星级小于等于之前星级，则没有奖励，大于的，将本次奖励相对之前星级多处的奖励给玩家</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +164,46 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;6</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;7</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;8</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;9</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;10</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;11</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;12</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;13</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +226,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -456,75 +570,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="10" max="11" width="7.625" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="11" max="12" width="7.625" customWidth="1"/>
+    <col min="14" max="14" width="68.25" customWidth="1"/>
+    <col min="15" max="15" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -551,414 +669,478 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>40</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
       <c r="I3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
         <v>30</v>
       </c>
-      <c r="K3">
-        <v>45</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>45</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
       <c r="I4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>50</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
       <c r="I5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
         <v>30</v>
       </c>
-      <c r="K5">
-        <v>45</v>
-      </c>
       <c r="L5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>55</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
       <c r="I6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
         <v>30</v>
       </c>
-      <c r="K6">
-        <v>45</v>
-      </c>
       <c r="L6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>60</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
       <c r="I7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
         <v>30</v>
       </c>
-      <c r="K7">
-        <v>45</v>
-      </c>
       <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>65</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
       <c r="I8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
         <v>30</v>
       </c>
-      <c r="K8">
-        <v>45</v>
-      </c>
       <c r="L8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>70</v>
       </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
       <c r="I9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
         <v>30</v>
       </c>
-      <c r="K9">
-        <v>45</v>
-      </c>
       <c r="L9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>75</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
       <c r="I10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
         <v>30</v>
       </c>
-      <c r="K10">
-        <v>45</v>
-      </c>
       <c r="L10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>80</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
       <c r="I11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
         <v>30</v>
       </c>
-      <c r="K11">
-        <v>45</v>
-      </c>
       <c r="L11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>85</v>
       </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
       <c r="I12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
         <v>30</v>
       </c>
-      <c r="K12">
-        <v>45</v>
-      </c>
       <c r="L12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H19" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
+++ b/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
@@ -175,35 +175,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;6</t>
-  </si>
-  <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;7</t>
-  </si>
-  <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;8</t>
-  </si>
-  <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;9</t>
-  </si>
-  <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;10</t>
-  </si>
-  <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;11</t>
-  </si>
-  <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;12</t>
-  </si>
-  <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;13</t>
-  </si>
-  <si>
-    <t>0;0;1;2|0,2,5,10|1;1;2;3;4|2;1;2;3;4|3;1;2;3;4|4;1;2;3;5</t>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;6</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;7</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;8</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;9</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;10</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;11</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;12</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;13</t>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|7;1;2;3;5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +575,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
+++ b/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyuzhenelex/Documents/my/SingleServerEngine/code/MMServerEngine/others/table/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="MiGongPass" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -211,18 +224,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -239,6 +252,14 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,11 +284,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -285,7 +309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -327,12 +351,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -362,12 +386,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -571,569 +595,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="7.125" customWidth="1"/>
-    <col min="11" max="12" width="7.625" customWidth="1"/>
-    <col min="14" max="14" width="68.25" customWidth="1"/>
-    <col min="15" max="15" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="68.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
         <v>40</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3">
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
         <v>30</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="L5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>45</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>35</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
         <v>30</v>
       </c>
-      <c r="L5">
-        <v>35</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="L9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>55</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="C11" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6">
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
         <v>30</v>
       </c>
-      <c r="L6">
-        <v>35</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="L11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>60</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7">
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
         <v>30</v>
       </c>
-      <c r="L7">
-        <v>35</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>65</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-      <c r="L8">
-        <v>35</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>70</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <v>30</v>
-      </c>
-      <c r="L9">
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>75</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>30</v>
-      </c>
-      <c r="L10">
-        <v>35</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>80</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <v>30</v>
-      </c>
-      <c r="L11">
-        <v>35</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>85</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>30</v>
-      </c>
-      <c r="L12">
-        <v>35</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="L12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" s="1"/>
     </row>
   </sheetData>
@@ -1146,16 +1170,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1192,12 +1216,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
+++ b/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|7;1;2;3;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +603,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1139,8 +1143,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I13" s="1"/>
+    <row r="13" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I14" s="1"/>

--- a/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
+++ b/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
@@ -42,6 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -51,6 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:郑玉振</t>
@@ -76,6 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -90,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +225,10 @@
   </si>
   <si>
     <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,6 +256,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -255,6 +264,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -603,7 +613,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1187,8 +1197,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I14" s="1"/>
+    <row r="14" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>85</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I15" s="1"/>

--- a/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
+++ b/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420"/>
   </bookViews>
   <sheets>
     <sheet name="MiGongPass" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,14 @@
   </si>
   <si>
     <t>0;0;1;2|0;2;5;10|1;1;2;3;4|4;1;2;3;4|5;1;2;3;4|6;1;2;3;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,22 +618,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E3" sqref="E3:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" customWidth="1"/>
-    <col min="11" max="12" width="7.6640625" customWidth="1"/>
-    <col min="14" max="14" width="68.1640625" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="68.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -663,13 +673,16 @@
         <v>17</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -707,13 +720,16 @@
         <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -727,7 +743,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>11</v>
@@ -751,13 +767,16 @@
         <v>-1</v>
       </c>
       <c r="M3" s="2">
-        <v>5</v>
-      </c>
-      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -771,7 +790,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
@@ -795,13 +814,16 @@
         <v>-1</v>
       </c>
       <c r="M4" s="2">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -815,7 +837,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
@@ -839,13 +861,16 @@
         <v>-1</v>
       </c>
       <c r="M5" s="2">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -859,7 +884,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
@@ -883,13 +908,16 @@
         <v>-1</v>
       </c>
       <c r="M6" s="2">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -903,7 +931,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
@@ -927,13 +955,16 @@
         <v>-1</v>
       </c>
       <c r="M7" s="2">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -947,7 +978,7 @@
         <v>65</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
@@ -971,13 +1002,16 @@
         <v>-1</v>
       </c>
       <c r="M8" s="2">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -991,7 +1025,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -1015,13 +1049,16 @@
         <v>-1</v>
       </c>
       <c r="M9" s="2">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1035,7 +1072,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -1059,13 +1096,16 @@
         <v>-1</v>
       </c>
       <c r="M10" s="2">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1079,7 +1119,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -1103,13 +1143,16 @@
         <v>-1</v>
       </c>
       <c r="M11" s="2">
-        <v>5</v>
-      </c>
-      <c r="N11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1123,7 +1166,7 @@
         <v>85</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
@@ -1147,13 +1190,16 @@
         <v>-1</v>
       </c>
       <c r="M12" s="2">
-        <v>5</v>
-      </c>
-      <c r="N12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1167,7 +1213,7 @@
         <v>85</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1191,13 +1237,16 @@
         <v>-1</v>
       </c>
       <c r="M13" s="2">
-        <v>5</v>
-      </c>
-      <c r="N13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1211,7 +1260,7 @@
         <v>85</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
@@ -1235,16 +1284,19 @@
         <v>-1</v>
       </c>
       <c r="M14" s="2">
-        <v>5</v>
-      </c>
-      <c r="N14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.2">

--- a/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
+++ b/code/MMServerEngine/others/table/tables/MiGongPass.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,11 +306,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -618,14 +615,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E14"/>
+      <selection activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" customWidth="1"/>
@@ -636,677 +634,1085 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
         <v>40</v>
       </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
         <v>11</v>
       </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>45</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
         <v>15</v>
       </c>
-      <c r="K4" s="2">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>5</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="K4" s="1">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1">
+        <v>30</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1">
+        <v>30</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1">
+        <v>30</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1">
+        <v>30</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1">
+        <v>30</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1">
+        <v>30</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>5</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="D23" s="1">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1">
+        <v>30</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="1">
         <v>2</v>
       </c>
-      <c r="N7" s="2">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>65</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2">
-        <v>30</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>5</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>70</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2">
-        <v>30</v>
-      </c>
-      <c r="L9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>5</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
-        <v>20</v>
-      </c>
-      <c r="K10" s="2">
-        <v>30</v>
-      </c>
-      <c r="L10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>5</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <v>80</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
-        <v>20</v>
-      </c>
-      <c r="K11" s="2">
-        <v>30</v>
-      </c>
-      <c r="L11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2">
-        <v>5</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <v>85</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <v>20</v>
-      </c>
-      <c r="K12" s="2">
-        <v>30</v>
-      </c>
-      <c r="L12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>5</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2">
-        <v>30</v>
-      </c>
-      <c r="L13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2">
-        <v>5</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>85</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2">
-        <v>30</v>
-      </c>
-      <c r="L14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2</v>
-      </c>
-      <c r="N14" s="2">
-        <v>5</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="N23" s="1">
+        <v>5</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
